--- a/rooming.xlsx
+++ b/rooming.xlsx
@@ -6318,14 +6318,14 @@
         <v>44</v>
       </c>
       <c r="D28" s="88">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="E28" s="106">
         <v>98</v>
       </c>
       <c r="F28" s="90">
         <f>D28*E28</f>
-        <v>12250</v>
+        <v>0</v>
       </c>
       <c r="G28" t="s" s="91">
         <v>29</v>
@@ -6340,14 +6340,14 @@
         <v>45</v>
       </c>
       <c r="D29" s="105">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="E29" s="89">
         <v>25</v>
       </c>
       <c r="F29" s="90">
         <f>D29*E29</f>
-        <v>3125</v>
+        <v>0</v>
       </c>
       <c r="G29" t="s" s="91">
         <v>29</v>
@@ -6424,14 +6424,14 @@
         <v>50</v>
       </c>
       <c r="D33" s="100">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="E33" s="97">
         <v>123.8</v>
       </c>
       <c r="F33" s="90">
         <f>D33*E33</f>
-        <v>0</v>
+        <v>15475</v>
       </c>
       <c r="G33" t="s" s="91">
         <v>47</v>
